--- a/WoniuBoss4.0/接口测试代码整理/woniuboss4.0_python/testdata/lf_woniuboss4.0.xlsx
+++ b/WoniuBoss4.0/接口测试代码整理/woniuboss4.0_python/testdata/lf_woniuboss4.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>用例编号</t>
   </si>
@@ -93,6 +93,38 @@
 showType=today</t>
   </si>
   <si>
+    <t>检查报表中心_教学部数据是否正确_002</t>
+  </si>
+  <si>
+    <t>检查报表中心_教学部数据是否正确</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/stuClass/queryClass</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+regionId=1
+orientation=测试
+openStatus=02</t>
+  </si>
+  <si>
+    <t>检查报表中心_就业部数据是否正确_003</t>
+  </si>
+  <si>
+    <t>检查报表中心_就业部数据是否正确</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/reportJob/queryJobInfo?selectTime=</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+region=1
+s_jobtime=2020-04-01
+e_jobtime=2020-04-25</t>
+  </si>
+  <si>
     <t>login_001</t>
   </si>
   <si>
@@ -155,8 +187,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -208,7 +240,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,65 +353,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -289,33 +360,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -326,22 +374,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -364,73 +396,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,109 +564,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,13 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,6 +625,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,54 +659,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -670,6 +673,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -678,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,16 +722,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,115 +740,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1315,17 +1347,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="40.625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="12" customWidth="1"/>
+    <col min="2" max="3" width="33.625" style="12" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="12" customWidth="1"/>
     <col min="5" max="5" width="48.125" style="12" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="12" customWidth="1"/>
@@ -1356,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:7">
+    <row r="2" ht="40.5" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -1376,12 +1407,60 @@
         <v>200</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:7">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="12">
+        <v>200</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="12">
+        <v>200</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://192.168.176.128:8080/WoniuBoss4.0/countMarket/count"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://192.168.176.128:8080/WoniuBoss4.0/stuClass/queryClass"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://192.168.176.128:8080/WoniuBoss4.0/reportJob/queryJobInfo?selectTime="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1435,94 +1514,94 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="38.25" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F2" s="9">
         <v>200</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="38.25" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F3" s="9">
         <v>200</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="38.25" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F4" s="9">
         <v>200</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="38.25" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5" s="9">
         <v>200</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/WoniuBoss4.0/接口测试代码整理/woniuboss4.0_python/testdata/lf_woniuboss4.0.xlsx
+++ b/WoniuBoss4.0/接口测试代码整理/woniuboss4.0_python/testdata/lf_woniuboss4.0.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="1"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
     <sheet name="report_center" sheetId="2" r:id="rId2"/>
     <sheet name="财务管理" sheetId="3" r:id="rId3"/>
+    <sheet name="employee_manage" sheetId="4" r:id="rId4"/>
+    <sheet name="admin_manage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>用例编号</t>
   </si>
@@ -79,7 +81,7 @@
 contentInfo=</t>
   </si>
   <si>
-    <t>检查报表中心_市场部数据是否正确_001</t>
+    <t>检查报表中心_001</t>
   </si>
   <si>
     <t>检查报表中心_市场部数据是否正确</t>
@@ -93,7 +95,7 @@
 showType=today</t>
   </si>
   <si>
-    <t>检查报表中心_教学部数据是否正确_002</t>
+    <t>检查报表中心_002</t>
   </si>
   <si>
     <t>检查报表中心_教学部数据是否正确</t>
@@ -109,7 +111,7 @@
 openStatus=02</t>
   </si>
   <si>
-    <t>检查报表中心_就业部数据是否正确_003</t>
+    <t>检查报表中心_003</t>
   </si>
   <si>
     <t>检查报表中心_就业部数据是否正确</t>
@@ -179,6 +181,113 @@
   </si>
   <si>
     <t>checkcodeError</t>
+  </si>
+  <si>
+    <t>人事管理_001</t>
+  </si>
+  <si>
+    <t>增员工功能是否实现</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/employee/addEmp</t>
+  </si>
+  <si>
+    <t>emp.region_id=1
+emp.department_id=7
+emp.position=就业老师
+emp.employee_name=js004
+emp.sex=男
+emp.entry_time=
+emp.tel=
+emp.email=
+emp.qq=
+emp.education=
+emp.university=
+emp.major=
+emp.address=
+emp.source=
+emp.cardnum=
+emp.identity=
+emp.birthday=
+emp.birthday_type=01
+emp.emergency_contact=
+emp.emergency_tel=
+emp.emegency_relation=
+emp.work_id=js004</t>
+  </si>
+  <si>
+    <t>人事管理_002</t>
+  </si>
+  <si>
+    <t>修改员工功能是否实现</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/employee/saveModifyEmp</t>
+  </si>
+  <si>
+    <t>emp.employee_id=23
+emp.region_id=1
+emp.department_id=7
+emp.position=班主任emp.employee_name=js005
+emp.sex=男
+emp.entry_time=
+emp.work_id=js005
+emp.emp_status=01
+emp.leave_time=
+emp.tel=
+emp.email=
+emp.qq=
+emp.education=
+emp.university=
+emp.major=
+emp.address=
+emp.source=
+emp.cardnum=
+emp.identity=
+emp.birthday=
+emp.birthday_type=01
+emp.emergency_contact=
+emp.emergency_tel=
+emp.emegency_relation=</t>
+  </si>
+  <si>
+    <t>人事管理_003</t>
+  </si>
+  <si>
+    <t>组合条件查询数据是否正确</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/employee/queryEmpList</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+regionId=1
+deptId=9
+empName=
+status=01</t>
+  </si>
+  <si>
+    <t>query_success</t>
+  </si>
+  <si>
+    <t>行政综合_采购登记_001</t>
+  </si>
+  <si>
+    <t>采购登记页面组合条件查询</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/assets/queryAssByInfo</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+regionId=1
+type=01
+assOwner=01
+barCode=12345678999
+count=
+state=01</t>
   </si>
 </sst>
 </file>
@@ -214,6 +323,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -229,14 +346,6 @@
       <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -734,7 +843,7 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,50 +961,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,82 +1369,82 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="34.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="89.25" spans="1:7">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="6" customFormat="1" ht="89.25" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="12">
         <v>200</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="93" customHeight="1" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="12">
         <v>200</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1349,110 +1464,110 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="40.625" style="12" customWidth="1"/>
-    <col min="2" max="3" width="33.625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="12" customWidth="1"/>
-    <col min="5" max="5" width="48.125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="27.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="27.125" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="40.625" style="14" customWidth="1"/>
+    <col min="2" max="3" width="33.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="48.125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="27.5" style="14" customWidth="1"/>
+    <col min="7" max="7" width="27.125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:7">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="14">
         <v>200</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="1:7">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="14">
         <v>200</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="67.5" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>200</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1479,128 +1594,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="76.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="34.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="38.25" spans="1:7">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="6" customFormat="1" ht="38.25" spans="1:7">
+      <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="12">
         <v>200</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="38.25" spans="1:7">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="6" customFormat="1" ht="38.25" spans="1:7">
+      <c r="A3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="12">
         <v>200</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="38.25" spans="1:7">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="6" customFormat="1" ht="38.25" spans="1:7">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="12">
         <v>200</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="38.25" spans="1:7">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="6" customFormat="1" ht="38.25" spans="1:7">
+      <c r="A5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="12">
         <v>200</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="12" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1615,4 +1730,202 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="23.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="47.25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="135" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" ht="123" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="137" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="2">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://192.168.176.128:8080/WoniuBoss4.0/employee/addEmp" tooltip="http://192.168.176.128:8080/WoniuBoss4.0/employee/addEmp"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://192.168.176.128:8080/WoniuBoss4.0/employee/saveModifyEmp"/>
+    <hyperlink ref="C4" r:id="rId3" display="http://192.168.176.128:8080/WoniuBoss4.0/employee/queryEmpList" tooltip="http://192.168.176.128:8080/WoniuBoss4.0/employee/queryEmpList"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="129" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="28.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="29" customHeight="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://192.168.176.128:8080/WoniuBoss4.0/assets/queryAssByInfo"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/WoniuBoss4.0/接口测试代码整理/woniuboss4.0_python/testdata/lf_woniuboss4.0.xlsx
+++ b/WoniuBoss4.0/接口测试代码整理/woniuboss4.0_python/testdata/lf_woniuboss4.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840" activeTab="3"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>用例编号</t>
   </si>
@@ -288,6 +288,148 @@
 barCode=12345678999
 count=
 state=01</t>
+  </si>
+  <si>
+    <t>行政综合_采购登记_002</t>
+  </si>
+  <si>
+    <t>新增新固定资产是否正常</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/assets/addAss</t>
+  </si>
+  <si>
+    <t>ass.assets_name=01
+ass.assets_type=01
+ass.bar_code=12345678901
+ass.price=999
+purchase_employee=js000
+ass.purchase_employee_id=3
+ass.purchase_time=2020-04-25
+ass.note=
+ass.assets_owner=01</t>
+  </si>
+  <si>
+    <t>行政综合_采购登记_003</t>
+  </si>
+  <si>
+    <t>新增原有固定资产是否正常</t>
+  </si>
+  <si>
+    <t>ass.assets_name=01
+ass.assets_type=01
+ass.bar_code=12345678900
+ass.price=999
+purchase_employee=js000
+ass.purchase_employee_id=3
+ass.purchase_time=2020-04-25
+ass.note=
+ass.assets_owner=01</t>
+  </si>
+  <si>
+    <t>AlreayExistCode</t>
+  </si>
+  <si>
+    <t>行政综合_采购登记_004</t>
+  </si>
+  <si>
+    <t>修改有固定资产是否正常</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/assets/saveModifyAss</t>
+  </si>
+  <si>
+    <t>ass.assets_id=1
+purchase_employee=js000
+ass.purchase_employee_id=3
+ass.purchase_time=2020-04-23
+ass.state=01
+ass.note=测试
+ass.assets_owner=01</t>
+  </si>
+  <si>
+    <t>行政综合_领用登记_001</t>
+  </si>
+  <si>
+    <t>新增领用登记已采购,并且未领用过资产</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/borrow/addBor</t>
+  </si>
+  <si>
+    <t>AssCode=12345678999
+bor.borrower_type=01
+borrower=js000
+bor.borrower_id=3
+bor.note=测试</t>
+  </si>
+  <si>
+    <t>行政综合_领用登记_002</t>
+  </si>
+  <si>
+    <t>新增领用登记已领用过资产</t>
+  </si>
+  <si>
+    <t>noObj</t>
+  </si>
+  <si>
+    <t>行政综合_领用登记_003</t>
+  </si>
+  <si>
+    <t>新增领用登记未采购过资产</t>
+  </si>
+  <si>
+    <t>AssCode=99999999999
+bor.borrower_type=01
+borrower=js000
+bor.borrower_id=3
+bor.note=测试</t>
+  </si>
+  <si>
+    <t>行政综合_领用登记_004</t>
+  </si>
+  <si>
+    <t>修改已领用的固定资产</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/borrow/editBor?borrow_id=10</t>
+  </si>
+  <si>
+    <t>editCode=12345678999
+bor.edit_type=02
+edit_borrower=js000
+bor.edit_id=3
+bor.note=测试</t>
+  </si>
+  <si>
+    <t>行政综合_领用登记_005</t>
+  </si>
+  <si>
+    <t>归还已领用的固定资产</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/borrow/returnBor</t>
+  </si>
+  <si>
+    <t>borrow_id=10</t>
+  </si>
+  <si>
+    <t>行政综合_归还记录_006</t>
+  </si>
+  <si>
+    <t>组合条件归还记录数据列表</t>
+  </si>
+  <si>
+    <t>http://192.168.176.128:8080/WoniuBoss4.0/returns/queryRetList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pageSize=10
+pageIndex=1
+regionId=1
+type=01
+assType=02
+sleName=
+</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1879,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1857,19 +1999,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="129" customHeight="1" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="129" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="28.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -1921,9 +2063,225 @@
         <v>56</v>
       </c>
     </row>
+    <row r="3" ht="99" customHeight="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="99" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="2">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" ht="99" customHeight="1" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2">
+        <v>200</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="2">
+        <v>200</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2">
+        <v>200</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="2">
+        <v>200</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2">
+        <v>200</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="2">
+        <v>200</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://192.168.176.128:8080/WoniuBoss4.0/assets/queryAssByInfo"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://192.168.176.128:8080/WoniuBoss4.0/assets/addAss"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://192.168.176.128:8080/WoniuBoss4.0/assets/addAss"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://192.168.176.128:8080/WoniuBoss4.0/assets/saveModifyAss" tooltip="http://192.168.176.128:8080/WoniuBoss4.0/assets/saveModifyAss"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://192.168.176.128:8080/WoniuBoss4.0/borrow/addBor" tooltip="http://192.168.176.128:8080/WoniuBoss4.0/borrow/addBor"/>
+    <hyperlink ref="C7" r:id="rId4" display="http://192.168.176.128:8080/WoniuBoss4.0/borrow/addBor" tooltip="http://192.168.176.128:8080/WoniuBoss4.0/borrow/addBor"/>
+    <hyperlink ref="C8" r:id="rId4" display="http://192.168.176.128:8080/WoniuBoss4.0/borrow/addBor" tooltip="http://192.168.176.128:8080/WoniuBoss4.0/borrow/addBor"/>
+    <hyperlink ref="C9" r:id="rId5" display="http://192.168.176.128:8080/WoniuBoss4.0/borrow/editBor?borrow_id=10" tooltip="http://192.168.176.128:8080/WoniuBoss4.0/borrow/editBor?borrow_id=10"/>
+    <hyperlink ref="C10" r:id="rId6" display="http://192.168.176.128:8080/WoniuBoss4.0/borrow/returnBor"/>
+    <hyperlink ref="C11" r:id="rId7" display="http://192.168.176.128:8080/WoniuBoss4.0/returns/queryRetList"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
